--- a/results/similarity_scores.xlsx
+++ b/results/similarity_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,217 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.251175238566162</v>
+        <v>7.096774193548387</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Document 1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Document 3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6.849315068493151</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Document 1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Document 4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2.380952380952381</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Document 1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Document 5</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2.898550724637681</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Document 1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Document 6</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7.142857142857142</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Document 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Document 3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7.407407407407407</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Document 2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Document 4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8.571428571428571</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Document 2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Document 5</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8.843537414965986</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Document 2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Document 6</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9.285714285714286</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Document 3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Document 4</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5.263157894736842</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Document 3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Document 5</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7.142857142857142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Document 3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Document 6</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>13.49206349206349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Document 4</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Document 5</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4.40251572327044</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Document 4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Document 6</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3.246753246753246</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Document 5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Document 6</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>10.25641025641026</v>
       </c>
     </row>
   </sheetData>

--- a/results/similarity_scores.xlsx
+++ b/results/similarity_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,226 +453,3301 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Document 1</t>
+          <t>Original Document 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Document 2</t>
+          <t>Suspicious Document 1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.096774193548387</v>
+        <v>3.720930232558139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Document 1</t>
+          <t>Original Document 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Document 3</t>
+          <t>Suspicious Document 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.849315068493151</v>
+        <v>6.329113924050633</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Document 1</t>
+          <t>Original Document 2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Document 4</t>
+          <t>Suspicious Document 1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.380952380952381</v>
+        <v>2.67379679144385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Document 1</t>
+          <t>Original Document 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Document 5</t>
+          <t>Suspicious Document 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.898550724637681</v>
+        <v>3.787878787878788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Document 1</t>
+          <t>Original Document 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Document 6</t>
+          <t>Suspicious Document 1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.142857142857142</v>
+        <v>3.153153153153153</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Document 2</t>
+          <t>Original Document 3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Document 3</t>
+          <t>Suspicious Document 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7.407407407407407</v>
+        <v>4.819277108433735</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Document 2</t>
+          <t>Original Document 4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Document 4</t>
+          <t>Suspicious Document 1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.571428571428571</v>
+        <v>4.25531914893617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Document 2</t>
+          <t>Original Document 4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Document 5</t>
+          <t>Suspicious Document 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.843537414965986</v>
+        <v>6.741573033707865</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Document 2</t>
+          <t>Original Document 5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Document 6</t>
+          <t>Suspicious Document 1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.285714285714286</v>
+        <v>1.515151515151515</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Document 3</t>
+          <t>Original Document 5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Document 4</t>
+          <t>Suspicious Document 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.263157894736842</v>
+        <v>5.035971223021583</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Document 3</t>
+          <t>Original Document 6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Document 5</t>
+          <t>Suspicious Document 1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.142857142857142</v>
+        <v>4.81283422459893</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Document 3</t>
+          <t>Original Document 6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Document 6</t>
+          <t>Suspicious Document 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13.49206349206349</v>
+        <v>5.223880597014925</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Document 4</t>
+          <t>Original Document 7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Document 5</t>
+          <t>Suspicious Document 1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.40251572327044</v>
+        <v>5.076142131979696</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Document 4</t>
+          <t>Original Document 7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Document 6</t>
+          <t>Suspicious Document 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.246753246753246</v>
+        <v>7.801418439716312</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Document 5</t>
+          <t>Original Document 8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Document 6</t>
+          <t>Suspicious Document 1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10.25641025641026</v>
+        <v>2.898550724637681</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Original Document 8</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.935483870967742</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Original Document 9</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4.390243902439024</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Original Document 9</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4.605263157894736</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Original Document 10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3.888888888888889</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Original Document 10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5.600000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Original Document 11</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5.128205128205128</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Original Document 11</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8.695652173913043</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Original Document 12</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4.326923076923077</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Original Document 12</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3.846153846153846</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Original Document 13</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3.619909502262444</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Original Document 13</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5.454545454545454</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Original Document 14</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4.651162790697675</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Original Document 14</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>10.61946902654867</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Original Document 15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>7.112970711297072</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Original Document 15</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7.48663101604278</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Original Document 16</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>8.866995073891626</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Original Document 16</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>7.096774193548387</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Original Document 17</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>4.41988950276243</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Original Document 17</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3.076923076923077</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Original Document 18</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>6.302521008403361</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Original Document 18</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5.88235294117647</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Original Document 19</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6.598984771573605</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Original Document 19</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>9.929078014184398</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Original Document 20</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8.780487804878048</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Original Document 20</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Original Document 21</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7.000000000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Original Document 21</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4.605263157894736</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Original Document 22</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4.145077720207254</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Original Document 22</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1.388888888888889</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Original Document 23</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>7.627118644067797</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Original Document 23</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6.417112299465241</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Original Document 24</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>7.627118644067797</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Original Document 24</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6.417112299465241</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Original Document 25</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>3.96039603960396</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Original Document 25</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>9.929078014184398</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Original Document 26</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4.040404040404041</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Original Document 26</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2.72108843537415</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Original Document 27</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5.88235294117647</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Original Document 27</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>5.347593582887701</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Original Document 28</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5.063291139240507</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Original Document 28</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>5.434782608695652</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Original Document 29</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3.260869565217391</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Original Document 29</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>7.142857142857142</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Original Document 30</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>3.381642512077295</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Original Document 30</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>3.246753246753246</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Original Document 31</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2.525252525252525</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Original Document 31</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>5.714285714285714</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Original Document 32</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>9.743589743589745</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Original Document 32</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>6.711409395973154</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Original Document 33</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>3.482587064676617</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Original Document 33</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1.324503311258278</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Original Document 34</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>3.015075376884422</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Original Document 34</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>9.48905109489051</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Original Document 35</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>5.769230769230769</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Original Document 35</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>7.142857142857142</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Original Document 36</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>4.721030042918455</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Original Document 36</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>5.58659217877095</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Original Document 37</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>4.864864864864865</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Original Document 37</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>3.731343283582089</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Original Document 38</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>5.128205128205128</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Original Document 38</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>7.909604519774012</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Original Document 39</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>3.271028037383177</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Original Document 39</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>5.063291139240507</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Original Document 40</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>5.045871559633028</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Original Document 40</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>8.074534161490684</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Original Document 41</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Original Document 41</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>7.199999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Original Document 42</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>7.08215297450425</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Original Document 42</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>8.026755852842809</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Original Document 43</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2.631578947368421</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Original Document 43</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2.18978102189781</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Original Document 44</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>3.092783505154639</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Original Document 44</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4.316546762589928</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Original Document 45</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3.365384615384615</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Original Document 45</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Original Document 46</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>6.532663316582915</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Original Document 46</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>6.081081081081082</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Original Document 47</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3.535353535353535</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Original Document 47</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.6711409395973155</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Original Document 48</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1.941747572815534</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Original Document 48</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>5.442176870748299</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Original Document 49</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>5.235602094240837</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Original Document 49</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>4.285714285714286</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Original Document 50</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>4.326923076923077</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Original Document 50</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>3.846153846153846</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Original Document 51</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>6.435643564356436</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Original Document 51</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>8.843537414965986</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Original Document 52</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Original Document 52</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>4.838709677419355</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Original Document 53</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2.339181286549707</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Original Document 53</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>3.448275862068965</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Original Document 54</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>7.000000000000001</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Original Document 54</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>4.605263157894736</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Original Document 55</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>4.95049504950495</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Original Document 55</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>5.369127516778524</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Original Document 56</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>3.686635944700461</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Original Document 56</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Original Document 57</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>5.454545454545454</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Original Document 57</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>4.733727810650888</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Original Document 58</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>8.411214953271028</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Original Document 58</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>5.357142857142857</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Original Document 59</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>7.253886010362693</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Original Document 59</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>6.293706293706294</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Original Document 60</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Original Document 60</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>4.519774011299435</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Original Document 61</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>7.575757575757576</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Original Document 61</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>6.018518518518518</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Original Document 62</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>6.060606060606061</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Original Document 62</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>7.344632768361582</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Original Document 63</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2.304147465437788</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Original Document 63</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>6.369426751592357</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Original Document 64</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>4.739336492890995</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Original Document 64</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>5.732484076433122</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Original Document 65</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>4.651162790697675</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Original Document 65</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>4.938271604938271</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Original Document 66</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Original Document 66</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>5.194805194805195</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Original Document 67</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>6.372549019607843</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Original Document 67</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>5.194805194805195</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Original Document 68</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>4.142011834319527</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Original Document 68</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>3.418803418803419</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Original Document 69</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>3.007518796992481</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Original Document 69</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Original Document 70</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>3.804347826086957</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Original Document 70</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Original Document 71</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>6.145251396648044</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Original Document 71</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>5.46875</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Original Document 72</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>7.692307692307693</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Original Document 72</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2.91970802919708</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Original Document 73</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>5.789473684210527</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Original Document 73</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2.097902097902098</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Original Document 74</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>7.291666666666667</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Original Document 74</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2.72108843537415</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Original Document 75</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>11.79775280898876</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Original Document 75</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>3.597122302158273</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Original Document 76</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>61.97183098591549</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Original Document 76</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>4.166666666666666</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Original Document 77</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>6.217616580310881</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Original Document 77</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>5.633802816901409</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Original Document 78</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>8.620689655172415</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Original Document 78</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>7.199999999999999</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Original Document 79</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>7.857142857142857</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Original Document 79</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>4.661016949152542</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Original Document 80</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>10.65989847715736</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Original Document 80</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>6.535947712418301</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Original Document 81</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>6.018518518518518</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Original Document 81</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>8.074534161490684</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Original Document 82</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>5.128205128205128</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Original Document 82</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>11.11111111111111</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Original Document 83</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>3.174603174603174</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Original Document 83</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>8.527131782945736</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Original Document 84</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>4.784688995215311</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Original Document 84</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>4.45859872611465</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Original Document 85</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>4.587155963302752</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Original Document 85</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>2.366863905325444</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Original Document 86</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>6.008583690987124</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Original Document 86</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>4.347826086956522</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Original Document 87</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>7.874015748031496</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Original Document 87</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>3.791469194312796</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Original Document 88</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>7.103825136612022</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Original Document 88</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>9.302325581395349</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Original Document 89</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>6.451612903225806</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Original Document 89</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>9.316770186335404</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Original Document 90</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>9.920634920634921</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Original Document 90</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>5.714285714285714</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Original Document 91</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>4.081632653061225</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Original Document 91</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>4.195804195804196</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Original Document 92</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>6.435643564356436</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Original Document 92</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>8.108108108108109</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Original Document 93</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>6.965174129353234</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Original Document 93</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>3.896103896103896</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Original Document 94</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>3.260869565217391</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Original Document 94</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>7.142857142857142</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Original Document 95</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Original Document 95</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>3.08641975308642</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Original Document 96</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>4.545454545454546</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Original Document 96</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>4.10958904109589</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Original Document 97</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>7.920792079207921</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Original Document 97</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>6.535947712418301</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Original Document 98</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>4.016064257028113</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Original Document 98</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>5.154639175257731</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Original Document 99</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>5.365853658536586</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Original Document 99</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>3.205128205128205</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Original Document 100</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>4.878048780487805</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Original Document 100</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>4.57516339869281</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Original Document 101</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Original Document 101</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>7.216494845360824</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Original Document 102</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>2.976190476190476</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Original Document 102</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>10.2803738317757</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Original Document 103</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>3.825136612021858</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Original Document 103</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>6.299212598425196</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Original Document 104</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2.173913043478261</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Original Document 104</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>60.24096385542169</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Original Document 105</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>5.581395348837209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Original Document 105</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>12.41830065359477</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Original Document 106</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1.923076923076923</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Original Document 106</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>8.275862068965518</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Original Document 107</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>4.128440366972478</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Original Document 107</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>9.554140127388536</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Original Document 108</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Original Document 108</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>8.839779005524861</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Original Document 109</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1.834862385321101</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Original Document 109</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>7.051282051282051</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Original Document 110</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Suspicious Document 1</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>2.941176470588235</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Original Document 110</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Suspicious Document 2</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>7.638888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/results/similarity_scores.xlsx
+++ b/results/similarity_scores.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Document 1</t>
+          <t>Original Document</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Document 2</t>
+          <t>Suspicious Document</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.720930232558139</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.67379679144385</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.153153153153153</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.25531914893617</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.515151515151515</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.81283422459893</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.076142131979696</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.898550724637681</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.390243902439024</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.888888888888889</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.128205128205128</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.326923076923077</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.619909502262444</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.651162790697675</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7.112970711297072</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8.866995073891626</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.41988950276243</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6.302521008403361</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.598984771573605</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.780487804878048</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7.000000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.145077720207254</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.627118644067797</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7.627118644067797</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.96039603960396</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.040404040404041</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.063291139240507</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.260869565217391</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3.381642512077295</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.525252525252525</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9.743589743589745</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.482587064676617</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3.015075376884422</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.769230769230769</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.721030042918455</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.864864864864865</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="39">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.128205128205128</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.271028037383177</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.045871559633028</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="42">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>7.08215297450425</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.631578947368421</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.092783505154639</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.365384615384615</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6.532663316582915</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.535353535353535</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.941747572815534</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5.235602094240837</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.326923076923077</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6.435643564356436</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="53">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.777777777777778</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="54">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.339181286549707</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="55">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>7.000000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4.95049504950495</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="57">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3.686635944700461</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="58">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5.454545454545454</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="59">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8.411214953271028</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="60">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7.253886010362693</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="61">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="62">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7.575757575757576</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="63">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6.060606060606061</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="64">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.304147465437788</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="65">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4.739336492890995</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="66">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4.651162790697675</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="67">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3.333333333333333</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="68">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6.372549019607843</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="69">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4.142011834319527</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="70">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3.007518796992481</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="71">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3.804347826086957</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="72">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6.145251396648044</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="73">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7.692307692307693</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="74">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5.789473684210527</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="75">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7.291666666666667</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="76">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>11.79775280898876</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="77">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>61.97183098591549</v>
+        <v>61.97</v>
       </c>
     </row>
     <row r="78">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6.217616580310881</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="79">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8.620689655172415</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="80">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.857142857142857</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="81">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>10.65989847715736</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="82">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6.018518518518518</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="83">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5.128205128205128</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="84">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3.174603174603174</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="85">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4.784688995215311</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="86">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4.587155963302752</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="87">
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6.008583690987124</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="88">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7.874015748031496</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="89">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7.103825136612022</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="90">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6.451612903225806</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="91">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9.920634920634921</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="92">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4.081632653061225</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="93">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6.435643564356436</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="94">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6.965174129353234</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="95">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3.260869565217391</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="96">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2.777777777777778</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="97">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4.545454545454546</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="98">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7.920792079207921</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="99">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4.016064257028113</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="100">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5.365853658536586</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="101">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4.878048780487805</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="102">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2.976190476190476</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="104">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3.825136612021858</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="105">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2.173913043478261</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="106">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5.581395348837209</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="107">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.923076923076923</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="108">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>4.128440366972478</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="109">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1.834862385321101</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="111">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2.941176470588235</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="112">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6.329113924050633</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="113">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3.787878787878788</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="114">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>4.819277108433735</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="115">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6.741573033707865</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="116">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>5.035971223021583</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="117">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>5.223880597014925</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="118">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>7.801418439716312</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="119">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1.935483870967742</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="120">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4.605263157894736</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="121">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5.600000000000001</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="122">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8.695652173913043</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3.846153846153846</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="124">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>5.454545454545454</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="125">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>10.61946902654867</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="126">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>7.48663101604278</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="127">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>7.096774193548387</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="128">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3.076923076923077</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="129">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="130">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>9.929078014184398</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="131">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4.605263157894736</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="133">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1.388888888888889</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="134">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>6.417112299465241</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="135">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>6.417112299465241</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="136">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>9.929078014184398</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="137">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2.72108843537415</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="138">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>5.347593582887701</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="139">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5.434782608695652</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="140">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>7.142857142857142</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="141">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3.246753246753246</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="142">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5.714285714285714</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="143">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>6.711409395973154</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="144">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1.324503311258278</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="145">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>9.48905109489051</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="146">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7.142857142857142</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="147">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>5.58659217877095</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="148">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3.731343283582089</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="149">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>7.909604519774012</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="150">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5.063291139240507</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="151">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>8.074534161490684</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="152">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7.199999999999999</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="153">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>8.026755852842809</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="154">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2.18978102189781</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="155">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4.316546762589928</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="156">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="157">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6.081081081081082</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="158">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.6711409395973155</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="159">
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>5.442176870748299</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="160">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4.285714285714286</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="161">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3.846153846153846</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="162">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>8.843537414965986</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="163">
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>4.838709677419355</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="164">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3.448275862068965</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="165">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4.605263157894736</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="166">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5.369127516778524</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="167">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>4.733727810650888</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="169">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>5.357142857142857</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="170">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>6.293706293706294</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="171">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>4.519774011299435</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="172">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>6.018518518518518</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="173">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>7.344632768361582</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="174">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>6.369426751592357</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="175">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>5.732484076433122</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="176">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>4.938271604938271</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="177">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>5.194805194805195</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="178">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>5.194805194805195</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="179">
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3.418803418803419</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="180">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>5.46875</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="183">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2.91970802919708</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="184">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2.097902097902098</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="185">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2.72108843537415</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="186">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3.597122302158273</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="187">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4.166666666666666</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="188">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5.633802816901409</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="189">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>7.199999999999999</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="190">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4.661016949152542</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="191">
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>6.535947712418301</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="192">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>8.074534161490684</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="193">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>11.11111111111111</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="194">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>8.527131782945736</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="195">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4.45859872611465</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="196">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2.366863905325444</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="197">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>4.347826086956522</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="198">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3.791469194312796</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="199">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>9.302325581395349</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="200">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>9.316770186335404</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="201">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>5.714285714285714</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="202">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4.195804195804196</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="203">
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>8.108108108108109</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="204">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3.896103896103896</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="205">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>7.142857142857142</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="206">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>3.08641975308642</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="207">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>4.10958904109589</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="208">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>6.535947712418301</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="209">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>5.154639175257731</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="210">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3.205128205128205</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="211">
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>4.57516339869281</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="212">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>7.216494845360824</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="213">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>10.2803738317757</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="214">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6.299212598425196</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="215">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>60.24096385542169</v>
+        <v>60.24</v>
       </c>
     </row>
     <row r="216">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>12.41830065359477</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="217">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>8.275862068965518</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="218">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>9.554140127388536</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="219">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>8.839779005524861</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="220">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>7.051282051282051</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="221">
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>7.638888888888889</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="222">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>7.514450867052023</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="223">
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>6.896551724137931</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="224">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>4.918032786885246</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="225">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>8.900523560209423</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="226">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>6.493506493506493</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="227">
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>8.163265306122449</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="228">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>14.09395973154362</v>
+        <v>14.09</v>
       </c>
     </row>
     <row r="229">
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>4.761904761904762</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="230">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>9.937888198757763</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="231">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>6.382978723404255</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="232">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>8.38709677419355</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="233">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>11.11111111111111</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="234">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="235">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>11.71875</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="236">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>7.881773399014778</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="237">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>5.555555555555555</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="239">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>9.090909090909092</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="240">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>11.61290322580645</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="241">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>9.411764705882353</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="242">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>12.0253164556962</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="243">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>7.894736842105263</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="244">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>9.595959595959595</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="245">
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>9.595959595959595</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="246">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>11.61290322580645</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="247">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="248">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>8.040201005025125</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="249">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>8.717948717948717</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="250">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>8.51063829787234</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="251">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>5.357142857142857</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="252">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>5.063291139240507</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="253">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>5.357142857142857</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="254">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="255">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>8.38709677419355</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="256">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>7.017543859649122</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="257">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>7.253886010362693</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="258">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>6.081081081081082</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="259">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>8.854166666666668</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="260">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>5.747126436781609</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="261">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>6.077348066298343</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="262">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>9.352517985611511</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="263">
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>8.945686900958465</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="264">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>6.756756756756757</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="265">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>4.487179487179487</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="266">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>7.228915662650602</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="267">
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>5.421686746987952</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="268">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>3.067484662576687</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="269">
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>5.487804878048781</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="270">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>5.128205128205128</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="271">
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>7.784431137724551</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="272">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>8.536585365853659</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="273">
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>8.823529411764707</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="274">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>7.8125</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="275">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>12.0253164556962</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="276">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>8.024691358024691</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="277">
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>7.428571428571429</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="278">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>8.938547486033519</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="279">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>8.938547486033519</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="280">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>10.38961038961039</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="281">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>4.102564102564102</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="282">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>7.860262008733625</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="283">
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>6.122448979591836</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="284">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>7.55813953488372</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="285">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>8.875739644970414</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="286">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>6.818181818181817</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="287">
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>7.142857142857142</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="288">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>5.263157894736842</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="289">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>7.751937984496124</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="290">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3.092783505154639</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="291">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>6.944444444444445</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="292">
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>4.605263157894736</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="294">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>9.333333333333334</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="295">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>6.962025316455696</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="296">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>3.846153846153846</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="297">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>6.629834254143646</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="298">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>6.329113924050633</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="299">
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>10.14492753623188</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="300">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>8.60655737704918</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="301">
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>9.036144578313253</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="302">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>8.474576271186439</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="303">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>5.333333333333334</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="305">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>5.813953488372093</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="306">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>8.522727272727272</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="307">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>8.808290155440414</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="308">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>6.278026905829597</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="309">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>10.41666666666667</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="310">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>10.22727272727273</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="311">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>10.09174311926606</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="312">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>7.741935483870968</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="313">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>5.952380952380952</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="314">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>9.202453987730062</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="315">
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>8.51063829787234</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="316">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3.932584269662921</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="317">
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>5.590062111801243</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="318">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6.470588235294119</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="319">
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>5.714285714285714</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="320">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>8.484848484848486</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="321">
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>7.878787878787878</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="322">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>6.60377358490566</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="323">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>7.086614173228346</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="324">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>10.07194244604317</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="325">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>6.338028169014084</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="326">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>11.11111111111111</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="327">
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7.361963190184049</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="328">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>9.826589595375722</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="329">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>11.39896373056995</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="330">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>10.11904761904762</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="331">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>8.125</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="332">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>8.433734939759036</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="333">
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>10.37037037037037</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="334">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>6.896551724137931</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="335">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>10.38251366120219</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="336">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>6.04026845637584</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="337">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>9.333333333333334</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="339">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>5.590062111801243</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="340">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>9.615384615384617</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="341">
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>8.270676691729323</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="342">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>3.846153846153846</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="343">
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>7.407407407407407</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="344">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2.197802197802198</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="345">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>7.03125</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="346">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>7.575757575757576</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="347">
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>7.228915662650602</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="348">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>7.352941176470589</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="349">
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>8.24742268041237</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="350">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>7.051282051282051</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="351">
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>9.75609756097561</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="352">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>8.917197452229299</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="353">
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>5.333333333333334</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="354">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>8.762886597938143</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="355">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>8.762886597938143</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="356">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>5.031446540880504</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="357">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>7.947019867549669</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="358">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>5.555555555555555</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="359">
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>11.95652173913044</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="360">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>4.25531914893617</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="361">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>4.907975460122699</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="362">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>11.88811188811189</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="363">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>3.012048192771084</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="364">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>5.095541401273886</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="365">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>3.846153846153846</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="366">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>5.988023952095809</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="367">
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>4.145077720207254</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="368">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>5.594405594405594</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="369">
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>9.72972972972973</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="370">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>7.878787878787878</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="371">
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>6.896551724137931</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="372">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>14.0625</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="373">
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>10.56105610561056</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="374">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>5.555555555555555</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="375">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>10.56338028169014</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="376">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>6.962025316455696</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="378">
@@ -6102,7 +6102,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>5.194805194805195</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="379">
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>5.031446540880504</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="380">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>7.482993197278912</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="381">
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>7.407407407407407</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="382">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>4.878048780487805</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="383">
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2.898550724637681</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="384">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>7.317073170731707</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="385">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>8.917197452229299</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="386">
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>7.643312101910828</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="387">
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>10.3030303030303</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="388">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>7.386363636363637</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="389">
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>3.278688524590164</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="390">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>6.493506493506493</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="391">
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>4.787234042553192</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="392">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>4.782608695652174</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="393">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>7.446808510638298</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="394">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>7.83132530120482</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="395">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4.705882352941177</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="396">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>7.058823529411764</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="397">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>4.819277108433735</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="399">
@@ -6417,7 +6417,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>3.90625</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="400">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1.075268817204301</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="401">
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>8.02919708029197</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="402">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>4.25531914893617</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="403">
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>6.993006993006993</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="404">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>14.49275362318841</v>
+        <v>14.49</v>
       </c>
     </row>
     <row r="405">
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>11.64383561643836</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="406">
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>7.586206896551724</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="407">
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3.314917127071823</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="408">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2.531645569620253</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="409">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>8.148148148148149</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="410">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>9.745762711864407</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="411">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>6.060606060606061</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="412">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>8.771929824561402</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="413">
@@ -6627,7 +6627,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>8.724832214765101</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="414">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>7.801418439716312</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="415">
@@ -6657,7 +6657,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>7.317073170731707</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="416">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>5.113636363636364</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="417">
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>9.090909090909092</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="418">
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>6.944444444444445</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="419">
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>6.993006993006993</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="420">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>8.045977011494253</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="421">
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="422">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>10.27397260273973</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="423">
@@ -6777,7 +6777,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>4.242424242424243</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="424">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>8.860759493670885</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="425">
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>3.52112676056338</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="426">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>3.468208092485549</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="427">
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>6.493506493506493</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="428">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>10.75949367088608</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="429">
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>7.462686567164178</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="430">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>4.848484848484849</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="431">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>6.796116504854369</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="433">
@@ -6927,7 +6927,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>4.838709677419355</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="434">
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>8.888888888888889</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="435">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>7.407407407407407</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="436">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>10.17964071856287</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="437">
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>6.289308176100629</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="438">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>8.875739644970414</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="439">
@@ -7017,7 +7017,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>6.63265306122449</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="440">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>4.069767441860465</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="441">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>11.33333333333333</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="442">
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>7.82122905027933</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="443">
@@ -7077,7 +7077,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>5.194805194805195</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="444">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>3.10880829015544</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="445">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>5.911330049261084</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="446">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>3.012048192771084</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="447">
@@ -7137,7 +7137,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>6.41025641025641</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="448">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>6.626506024096386</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="449">
@@ -7167,7 +7167,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>4.571428571428571</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="450">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>3.370786516853932</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="451">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2.61437908496732</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="452">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>6.707317073170732</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="453">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>4.736842105263158</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="455">
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>6.382978723404255</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="456">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>2.262443438914027</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="457">
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>8.522727272727272</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="458">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>3.92156862745098</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="459">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>8.780487804878048</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="460">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>4.651162790697675</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="461">
@@ -7347,7 +7347,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>6.043956043956044</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="462">
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>4.545454545454546</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="463">
@@ -7377,7 +7377,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3.636363636363636</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="464">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>7.692307692307693</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="465">
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>7.692307692307693</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="466">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>7.142857142857142</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="467">
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>5.389221556886228</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="468">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>7.766990291262135</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="469">
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>4.784688995215311</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="470">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>4.57516339869281</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="471">
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>5.142857142857142</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="472">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>6.134969325153374</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="473">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>5.747126436781609</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="474">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1.714285714285714</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="475">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>4.790419161676647</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="476">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>3.825136612021858</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="477">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>3.883495145631068</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="478">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>1.863354037267081</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="479">
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>6.930693069306932</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="480">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>3.804347826086957</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="481">
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>3.10880829015544</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="482">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>3.92156862745098</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="483">
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>6.097560975609756</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="484">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>4.430379746835443</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="485">
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>1.19047619047619</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="486">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>5.113636363636364</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="487">
@@ -7737,7 +7737,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>5.202312138728324</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="488">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>2.941176470588235</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="489">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1.123595505617978</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="490">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>1.785714285714286</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="491">
@@ -7797,7 +7797,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>3.888888888888889</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="492">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>5.113636363636364</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="493">
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>4.72972972972973</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="494">
@@ -7842,7 +7842,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>2.112676056338028</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="495">
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>4.545454545454546</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="496">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>4.597701149425287</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="497">
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>6.557377049180328</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="498">
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>4.66321243523316</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="499">
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>6.315789473684211</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="500">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>6.626506024096386</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="501">
@@ -7947,7 +7947,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>6.598984771573605</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="502">
@@ -7962,7 +7962,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>7.627118644067797</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="503">
@@ -7977,7 +7977,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>5.392156862745098</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="504">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>4.918032786885246</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="505">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>2.13903743315508</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="506">
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>3.723404255319149</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="507">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>4.46927374301676</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="508">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>4.46927374301676</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="509">
@@ -8067,7 +8067,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>2.816901408450704</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="510">
@@ -8097,7 +8097,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>4.545454545454546</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="512">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>5.263157894736842</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="513">
@@ -8127,7 +8127,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>5.063291139240507</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="514">
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>5.555555555555555</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="515">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>7.317073170731707</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="516">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>5.625</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="517">
@@ -8187,7 +8187,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>4.712041884816754</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="518">
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>6.060606060606061</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="519">
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>8.163265306122449</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="520">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>5.426356589147287</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="521">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>7.428571428571429</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="522">
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>9.340659340659341</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="523">
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>4.790419161676647</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="524">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>4.430379746835443</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="525">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>4.41988950276243</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="526">
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>9.595959595959595</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="528">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>4.721030042918455</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="529">
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>9.836065573770492</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="531">
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>8.810572687224671</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="532">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>4.819277108433735</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="533">
@@ -8427,7 +8427,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>8.187134502923977</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="534">
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>6.936416184971097</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="535">
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>1.910828025477707</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="536">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1.587301587301587</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="537">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>5.357142857142857</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="538">
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>6.214689265536723</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="539">
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>5.529953917050691</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="540">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>6.285714285714286</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="541">
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>2.777777777777778</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="542">
@@ -8562,7 +8562,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>6.392694063926941</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="543">
@@ -8577,7 +8577,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>3.623188405797102</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="544">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>3.896103896103896</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="545">
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>2.597402597402597</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="546">
@@ -8622,7 +8622,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>5.347593582887701</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="547">
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>3.409090909090909</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="548">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>3.141361256544502</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="549">
@@ -8667,7 +8667,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>7.246376811594203</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="550">
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="551">
@@ -8697,7 +8697,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>5.263157894736842</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="552">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>10.20408163265306</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="553">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>6.504065040650407</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="554">
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>4.347826086956522</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="555">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>8.875739644970414</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="556">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>3.703703703703703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="557">
@@ -8787,7 +8787,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>3.053435114503817</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="558">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>7.352941176470589</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="559">
@@ -8817,7 +8817,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>3.401360544217687</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="560">
@@ -8847,7 +8847,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>6.779661016949152</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="562">
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>2.127659574468085</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="563">
@@ -8877,7 +8877,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>4.697986577181208</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="564">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>4.347826086956522</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="565">
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>4.385964912280701</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="566">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>3.174603174603174</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="567">
@@ -8937,7 +8937,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>8.843537414965986</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="568">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>4.065040650406504</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="569">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>4.918032786885246</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="570">
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>3.472222222222222</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="571">
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>5.194805194805195</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="572">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>4.794520547945205</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="573">
@@ -9027,7 +9027,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>2.941176470588235</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="574">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>4.891304347826087</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="575">
@@ -9057,7 +9057,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>4.891304347826087</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="576">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>4.929577464788732</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="577">
@@ -9087,7 +9087,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>3.571428571428571</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="578">
@@ -9102,7 +9102,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>3.804347826086957</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="579">
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>6.214689265536723</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="580">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>1.574803149606299</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="581">
@@ -9147,7 +9147,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>2.684563758389262</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="582">
@@ -9162,7 +9162,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>6.766917293233083</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="583">
@@ -9177,7 +9177,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>3.378378378378379</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="584">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>4.25531914893617</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="585">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>5.109489051094891</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="586">
@@ -9222,7 +9222,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>5.298013245033113</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="587">
@@ -9237,7 +9237,7 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>4.571428571428571</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="588">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>2.307692307692308</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="589">
@@ -9267,7 +9267,7 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>5.714285714285714</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="590">
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>3.896103896103896</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="591">
@@ -9297,7 +9297,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>2.439024390243902</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="592">
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>10.3448275862069</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="593">
@@ -9327,7 +9327,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>7.823129251700681</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="594">
@@ -9342,7 +9342,7 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>65.4320987654321</v>
+        <v>65.43000000000001</v>
       </c>
     </row>
     <row r="595">
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>6.106870229007633</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="596">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>6.944444444444445</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="597">
@@ -9387,7 +9387,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>4.137931034482759</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="598">
@@ -9402,7 +9402,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>8.270676691729323</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="599">
@@ -9417,7 +9417,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>5.673758865248227</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="600">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>5.263157894736842</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="601">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>11.42857142857143</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="602">
@@ -9462,7 +9462,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>4.761904761904762</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="603">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>8.771929824561402</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="604">
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>5.555555555555555</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="605">
@@ -9507,7 +9507,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>4.794520547945205</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="606">
@@ -9522,7 +9522,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>5.594405594405594</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="607">
@@ -9537,7 +9537,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>3.79746835443038</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="608">
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>8.917197452229299</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="609">
@@ -9567,7 +9567,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>1.785714285714286</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="610">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>5.797101449275362</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="611">
@@ -9597,7 +9597,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>4.678362573099415</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="612">
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>4.205607476635514</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="613">
@@ -9627,7 +9627,7 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>5.747126436781609</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="614">
@@ -9642,7 +9642,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>5.228758169934641</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="615">
@@ -9657,7 +9657,7 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>8.843537414965986</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="616">
@@ -9672,7 +9672,7 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>4.45859872611465</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="617">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>3.311258278145695</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="618">
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1.96078431372549</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="619">
@@ -9717,7 +9717,7 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>1.769911504424779</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="620">
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>1.333333333333333</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="621">
@@ -9747,7 +9747,7 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>6.557377049180328</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="622">
@@ -9762,7 +9762,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>2.380952380952381</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="623">
@@ -9777,7 +9777,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>4.651162790697675</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="624">
@@ -9792,7 +9792,7 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>8.527131782945736</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="625">
@@ -9807,7 +9807,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>2.836879432624114</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="626">
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>2.985074626865671</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="627">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>3.680981595092025</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="628">
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>4.347826086956522</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="629">
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>8.474576271186439</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="630">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>7.111111111111111</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="631">
@@ -9897,7 +9897,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>3.973509933774835</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="632">
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>4.347826086956522</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="633">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="634">
@@ -9942,7 +9942,7 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>3.875968992248062</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="635">
@@ -9957,7 +9957,7 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>6.04026845637584</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="636">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>4.375</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="637">
@@ -9987,7 +9987,7 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>4.49438202247191</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="638">
@@ -10002,7 +10002,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>8.673469387755102</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="639">
@@ -10017,7 +10017,7 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>6.299212598425196</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="640">
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>7.59493670886076</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="641">
@@ -10047,7 +10047,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>3.349282296650718</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="642">
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>5.147058823529411</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="643">
@@ -10077,7 +10077,7 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>6.206896551724138</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="644">
@@ -10092,7 +10092,7 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>6.944444444444445</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="645">
@@ -10107,7 +10107,7 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>1.574803149606299</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="646">
@@ -10122,7 +10122,7 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>3.205128205128205</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="647">
@@ -10137,7 +10137,7 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>5.797101449275362</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="648">
@@ -10152,7 +10152,7 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>7.534246575342466</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="649">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>4.761904761904762</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="650">
@@ -10182,7 +10182,7 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>2.649006622516556</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="651">
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>5.47945205479452</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="652">
@@ -10212,7 +10212,7 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>3.589743589743589</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="653">
@@ -10227,7 +10227,7 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>1.818181818181818</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="654">
@@ -10242,7 +10242,7 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>4.032258064516129</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="655">
@@ -10257,7 +10257,7 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>4.098360655737705</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="656">
@@ -10272,7 +10272,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>5.063291139240507</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="657">
@@ -10287,7 +10287,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>4.137931034482759</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="658">
@@ -10302,7 +10302,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>5.063291139240507</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="659">
@@ -10317,7 +10317,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>5.524861878453039</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="660">
@@ -10332,7 +10332,7 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>4.545454545454546</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="661">
@@ -10347,7 +10347,7 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>4.929577464788732</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="662">
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>9.929078014184398</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="663">
@@ -10377,7 +10377,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>10.71428571428571</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="664">
@@ -10392,7 +10392,7 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>7.333333333333333</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="665">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>14.93506493506493</v>
+        <v>14.94</v>
       </c>
     </row>
     <row r="666">
@@ -10422,7 +10422,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>11.76470588235294</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="667">
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>8.474576271186439</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="668">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>16.80672268907563</v>
+        <v>16.81</v>
       </c>
     </row>
     <row r="669">
@@ -10467,7 +10467,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>11.53846153846154</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="670">
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>9.774436090225564</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="671">
@@ -10497,7 +10497,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>15.53398058252427</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="672">
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>7.874015748031496</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="673">
@@ -10527,7 +10527,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>8.759124087591241</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="674">
@@ -10542,7 +10542,7 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>5.228758169934641</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="675">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="676">
@@ -10572,7 +10572,7 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>12.5748502994012</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="677">
@@ -10587,7 +10587,7 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>9.285714285714286</v>
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="678">
@@ -10602,7 +10602,7 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>7.079646017699115</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="679">
@@ -10617,7 +10617,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>6.936416184971097</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="680">
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>7.575757575757576</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="681">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>10.71428571428571</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="682">
@@ -10662,7 +10662,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>17.74193548387097</v>
+        <v>17.74</v>
       </c>
     </row>
     <row r="683">
@@ -10677,7 +10677,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>5.555555555555555</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="684">
@@ -10692,7 +10692,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>8.13953488372093</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="685">
@@ -10707,7 +10707,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>8.13953488372093</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="686">
@@ -10722,7 +10722,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>7.575757575757576</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="687">
@@ -10737,7 +10737,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>6.976744186046512</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="688">
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>5.142857142857142</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="689">
@@ -10767,7 +10767,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>9.696969696969697</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="690">
@@ -10782,7 +10782,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>5.172413793103448</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="691">
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>5.797101449275362</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="692">
@@ -10812,7 +10812,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>9.75609756097561</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="693">
@@ -10827,7 +10827,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>3.546099290780142</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="694">
@@ -10842,7 +10842,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>6.060606060606061</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="695">
@@ -10857,7 +10857,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>6.2015503875969</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="696">
@@ -10872,7 +10872,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>7.042253521126761</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="697">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>7.975460122699387</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="698">
@@ -10902,7 +10902,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>9.565217391304348</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="699">
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>10.55900621118012</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="700">
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>7.746478873239436</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="701">
@@ -10947,7 +10947,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>5.921052631578947</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="702">
@@ -10962,7 +10962,7 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>83.33333333333334</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="703">
@@ -10977,7 +10977,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>12.72727272727273</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="704">
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>8.547008547008547</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="705">
@@ -11022,7 +11022,7 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>13.07692307692308</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="707">
@@ -11037,7 +11037,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>8.270676691729323</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="708">
@@ -11052,7 +11052,7 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>7.03125</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="709">
@@ -11067,7 +11067,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>9.230769230769232</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="710">
@@ -11082,7 +11082,7 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>10.83333333333333</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="711">
@@ -11097,7 +11097,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>7.971014492753622</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="712">
@@ -11112,7 +11112,7 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>8.088235294117647</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="713">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>10.37735849056604</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="714">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>9.183673469387756</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="715">
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>17.74193548387097</v>
+        <v>17.74</v>
       </c>
     </row>
     <row r="716">
@@ -11172,7 +11172,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>11.62790697674419</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="717">
@@ -11187,7 +11187,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>9.79020979020979</v>
+        <v>9.789999999999999</v>
       </c>
     </row>
     <row r="718">
@@ -11202,7 +11202,7 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>13.10344827586207</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="719">
@@ -11217,7 +11217,7 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>8.609271523178808</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="720">
@@ -11232,7 +11232,7 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>8.59375</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="721">
@@ -11247,7 +11247,7 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>6.832298136645963</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="722">
@@ -11262,7 +11262,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>4.347826086956522</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="723">
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>11.32075471698113</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="724">
@@ -11292,7 +11292,7 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>6.206896551724138</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="725">
@@ -11307,7 +11307,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>14.17910447761194</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="726">
@@ -11322,7 +11322,7 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>3.973509933774835</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="727">
@@ -11337,7 +11337,7 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>4.929577464788732</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="728">
@@ -11352,7 +11352,7 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>2.758620689655173</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="729">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>3.846153846153846</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="730">
@@ -11382,7 +11382,7 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>1.470588235294118</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="731">
@@ -11397,7 +11397,7 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>7.894736842105263</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="732">
@@ -11412,7 +11412,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>6.086956521739131</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="733">
@@ -11427,7 +11427,7 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>4.918032786885246</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="734">
@@ -11442,7 +11442,7 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>13.67521367521368</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="735">
@@ -11457,7 +11457,7 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>4.545454545454546</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="736">
@@ -11487,7 +11487,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>3.184713375796179</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="738">
@@ -11502,7 +11502,7 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>3.787878787878788</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="739">
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>7.079646017699115</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="740">
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="741">
@@ -11547,7 +11547,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>7.142857142857142</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="742">
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>11.80555555555556</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="743">
@@ -11592,7 +11592,7 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>10.43478260869565</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="745">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>11.85185185185185</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="746">
@@ -11622,7 +11622,7 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>3.225806451612903</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="747">
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>9.815950920245399</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="748">
@@ -11652,7 +11652,7 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>10.75268817204301</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="749">
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>10.3448275862069</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="750">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>10.13513513513514</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="751">
@@ -11697,7 +11697,7 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>10.58201058201058</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="752">
@@ -11712,7 +11712,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>8.799999999999999</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="753">
@@ -11727,7 +11727,7 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>7.2992700729927</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="754">
@@ -11742,7 +11742,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>10.52631578947368</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="755">
@@ -11757,7 +11757,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>7.017543859649122</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="756">
@@ -11772,7 +11772,7 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>9.219858156028367</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="757">
@@ -11787,7 +11787,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>9.448818897637794</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="758">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>11.94029850746269</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="759">
@@ -11817,7 +11817,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>8.522727272727272</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="760">
@@ -11832,7 +11832,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>7.246376811594203</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="761">
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>7.2992700729927</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="762">
@@ -11862,7 +11862,7 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>6.557377049180328</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="763">
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>6.060606060606061</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="764">
@@ -11892,7 +11892,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>9.90990990990991</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="765">
@@ -11907,7 +11907,7 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>5.263157894736842</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="766">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>13.57142857142857</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="767">
@@ -11937,7 +11937,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>7.462686567164178</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="768">
@@ -11952,7 +11952,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>12.76595744680851</v>
+        <v>12.77</v>
       </c>
     </row>
     <row r="769">
@@ -11967,7 +11967,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>6.976744186046512</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="770">
@@ -11982,7 +11982,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>5.47945205479452</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="771">
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>10.9375</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="772">
@@ -12012,7 +12012,7 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>8.42911877394636</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="773">
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>5.474452554744526</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="775">
@@ -12057,7 +12057,7 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>7.773851590106007</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="776">
@@ -12072,7 +12072,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>5.668016194331984</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="777">
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>6.666666666666667</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="778">
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>8.536585365853659</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="779">
@@ -12117,7 +12117,7 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>5.405405405405405</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="780">
@@ -12132,7 +12132,7 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>6.614785992217899</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="781">
@@ -12147,7 +12147,7 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>6.008583690987124</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="782">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>5.577689243027888</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="783">
@@ -12177,7 +12177,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>7.782101167315175</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="784">
@@ -12192,7 +12192,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>5.090909090909091</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="785">
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>4.347826086956522</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="786">
@@ -12222,7 +12222,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>8.96551724137931</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="787">
@@ -12237,7 +12237,7 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>8.076923076923077</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="788">
@@ -12252,7 +12252,7 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>6.41025641025641</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="789">
@@ -12267,7 +12267,7 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>9.824561403508772</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="790">
@@ -12297,7 +12297,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>8.42911877394636</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="792">
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>6.614785992217899</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="793">
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>2.352941176470588</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="794">
@@ -12342,7 +12342,7 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>8.650519031141869</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="795">
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>8.650519031141869</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="796">
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>6.299212598425196</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="797">
@@ -12387,7 +12387,7 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>4.313725490196078</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="798">
@@ -12402,7 +12402,7 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>5.762711864406779</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="799">
@@ -12417,7 +12417,7 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>10.75268817204301</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="800">
@@ -12432,7 +12432,7 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>4.602510460251046</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="801">
@@ -12447,7 +12447,7 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>5.384615384615385</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="802">
@@ -12462,7 +12462,7 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>10.0418410041841</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="803">
@@ -12477,7 +12477,7 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>6.2015503875969</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="804">
@@ -12492,7 +12492,7 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>3.875968992248062</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="805">
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>3.92156862745098</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="806">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>8.108108108108109</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="807">
@@ -12537,7 +12537,7 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>4.467353951890034</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="808">
@@ -12552,7 +12552,7 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>4.526748971193416</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="809">
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>6.620209059233449</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="810">
@@ -12582,7 +12582,7 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>5.243445692883896</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="811">
@@ -12612,7 +12612,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>5.508474576271186</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="813">
@@ -12627,7 +12627,7 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>11.45038167938931</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="814">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>5.809128630705394</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="815">
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>7.43801652892562</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="816">
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>9.126984126984127</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="817">
@@ -12687,7 +12687,7 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>7.936507936507936</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="818">
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>5.058365758754864</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="820">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>5.241935483870968</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="821">
@@ -12747,7 +12747,7 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>5.725190839694656</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="822">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>8.695652173913043</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="823">
@@ -12777,7 +12777,7 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>6.521739130434782</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="824">
@@ -12792,7 +12792,7 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>4.444444444444445</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="825">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>6.614785992217899</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="826">
@@ -12822,7 +12822,7 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>7.5098814229249</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="827">
@@ -12837,7 +12837,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>7.954545454545454</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="828">
@@ -12852,7 +12852,7 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>8.955223880597014</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="829">
@@ -12867,7 +12867,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>7.352941176470589</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="830">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>9.426229508196721</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="831">
@@ -12897,7 +12897,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>7.142857142857142</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="832">
@@ -12912,7 +12912,7 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>8.860759493670885</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="833">
@@ -12927,7 +12927,7 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>5.902777777777778</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="834">
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>6.015037593984962</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="835">
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>5.639097744360902</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="836">
@@ -12972,7 +12972,7 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>4.014598540145985</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="837">
@@ -12987,7 +12987,7 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>4.528301886792453</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="838">
@@ -13002,7 +13002,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>5.725190839694656</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="839">
@@ -13017,7 +13017,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>6.787330316742081</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="840">
@@ -13032,7 +13032,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>1.54639175257732</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="841">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>6.35593220338983</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="842">
@@ -13062,7 +13062,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>7.296137339055794</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="843">
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>8.474576271186439</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="844">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>10.59322033898305</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="845">
@@ -13107,7 +13107,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>7.258064516129033</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="846">
@@ -13122,7 +13122,7 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>9.282700421940929</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="847">
@@ -13137,7 +13137,7 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>7.011070110701106</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="848">
@@ -13152,7 +13152,7 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>8.163265306122449</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="849">
@@ -13167,7 +13167,7 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>9.210526315789473</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="850">
@@ -13182,7 +13182,7 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>91.53439153439153</v>
+        <v>91.53</v>
       </c>
     </row>
     <row r="851">
@@ -13197,7 +13197,7 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>13.00813008130081</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="852">
@@ -13212,7 +13212,7 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>11.15384615384616</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="853">
@@ -13227,7 +13227,7 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>7.28744939271255</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="854">
@@ -13242,7 +13242,7 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>7.142857142857142</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="855">
@@ -13257,7 +13257,7 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>7.307692307692308</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="856">
@@ -13272,7 +13272,7 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>5.494505494505495</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="857">
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>10.03584229390681</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="858">
@@ -13302,7 +13302,7 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>8.441558441558442</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="859">
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>10.3448275862069</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="860">
@@ -13332,7 +13332,7 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>7.777777777777778</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="861">
@@ -13347,7 +13347,7 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>11.96013289036545</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="862">
@@ -13362,7 +13362,7 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>6.451612903225806</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="863">
@@ -13377,7 +13377,7 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>8.695652173913043</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="864">
@@ -13392,7 +13392,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>7.003891050583658</v>
+        <v>7</v>
       </c>
     </row>
     <row r="865">
@@ -13407,7 +13407,7 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>2.040816326530612</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="866">
@@ -13422,7 +13422,7 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>3.296703296703297</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="867">
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>5.118110236220472</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="868">
@@ -13452,7 +13452,7 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>9.881422924901186</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="869">
@@ -13467,7 +13467,7 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>8.503401360544217</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="870">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>6.976744186046512</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="871">
@@ -13497,7 +13497,7 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>7.421875</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="872">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>2.643171806167401</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="874">
@@ -13542,7 +13542,7 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>5.042016806722689</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="875">
@@ -13557,7 +13557,7 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>4.641350210970464</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="876">
@@ -13572,7 +13572,7 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>10.38461538461539</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="877">
@@ -13587,7 +13587,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>5.426356589147287</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="878">
@@ -13602,7 +13602,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>6.296296296296296</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="879">
@@ -13617,7 +13617,7 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>9.859154929577464</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="880">
@@ -13632,7 +13632,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>6.415094339622642</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="881">
@@ -13647,7 +13647,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="882">
@@ -13662,7 +13662,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>9.523809523809524</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="883">
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>8.641975308641975</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="884">
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>5.970149253731343</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="885">
@@ -13707,7 +13707,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>10.09615384615385</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="886">
@@ -13722,7 +13722,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>8.823529411764707</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="887">
@@ -13737,7 +13737,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>7.784431137724551</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="888">
@@ -13752,7 +13752,7 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>12.35294117647059</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="889">
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>5.913978494623656</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="890">
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>11.03896103896104</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="892">
@@ -13812,7 +13812,7 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>10.52631578947368</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="893">
@@ -13827,7 +13827,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>9.836065573770492</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="894">
@@ -13842,7 +13842,7 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>7.575757575757576</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="895">
@@ -13857,7 +13857,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>13.10344827586207</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="896">
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>13.74407582938389</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="897">
@@ -13887,7 +13887,7 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>9.62566844919786</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="898">
@@ -13902,7 +13902,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>6.790123456790123</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="899">
@@ -13917,7 +13917,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>9.216589861751153</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="900">
@@ -13932,7 +13932,7 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>7.777777777777778</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="901">
@@ -13947,7 +13947,7 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>11.29032258064516</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="902">
@@ -13962,7 +13962,7 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>8.791208791208792</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="903">
@@ -13977,7 +13977,7 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>5.113636363636364</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="904">
@@ -13992,7 +13992,7 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>13.33333333333333</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="905">
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>13.33333333333333</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="906">
@@ -14022,7 +14022,7 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>9.604519774011299</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="907">
@@ -14037,7 +14037,7 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>6.741573033707865</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="908">
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>6.306306306306306</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="909">
@@ -14067,7 +14067,7 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>8.372093023255815</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="910">
@@ -14082,7 +14082,7 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>6.748466257668712</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="911">
@@ -14097,7 +14097,7 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="912">
@@ -14127,7 +14127,7 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>3.125</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="914">
@@ -14142,7 +14142,7 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>2.127659574468085</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="915">
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>7.936507936507936</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="917">
@@ -14187,7 +14187,7 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>6.046511627906977</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="918">
@@ -14202,7 +14202,7 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>7.878787878787878</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="919">
@@ -14217,7 +14217,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>10.04784688995215</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="920">
@@ -14232,7 +14232,7 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>5.128205128205128</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="921">
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>7.575757575757576</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="922">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="C922" t="n">
-        <v>6.790123456790123</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="923">
@@ -14277,7 +14277,7 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>10.03039513677812</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="924">
@@ -14292,7 +14292,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>4.678362573099415</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="925">
@@ -14307,7 +14307,7 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>3.370786516853932</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="926">
@@ -14322,7 +14322,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>4.736842105263158</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="927">
@@ -14337,7 +14337,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>7.103825136612022</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="928">
@@ -14352,7 +14352,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>3.846153846153846</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="929">
@@ -14367,7 +14367,7 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>8.379888268156424</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="930">
@@ -14382,7 +14382,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>6.321839080459771</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="931">
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>4.145077720207254</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="932">
@@ -14412,7 +14412,7 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>8.152173913043478</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="933">
@@ -14427,7 +14427,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>7.643312101910828</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="934">
@@ -14442,7 +14442,7 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>3.92156862745098</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="935">
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>8.791208791208792</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="936">
@@ -14472,7 +14472,7 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>9.497206703910614</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="937">
@@ -14502,7 +14502,7 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>11.91709844559585</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="939">
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>6.403940886699508</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="940">
@@ -14532,7 +14532,7 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>5.524861878453039</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="941">
@@ -14547,7 +14547,7 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>4.186046511627907</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="942">
@@ -14562,7 +14562,7 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>8.064516129032258</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="943">
@@ -14577,7 +14577,7 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>7.511737089201878</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="944">
@@ -14592,7 +14592,7 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>6.735751295336788</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="945">
@@ -14607,7 +14607,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>10.21505376344086</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="946">
@@ -14637,7 +14637,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>6.349206349206349</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="948">
@@ -14652,7 +14652,7 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>5.789473684210527</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="949">
@@ -14667,7 +14667,7 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>5.960264900662252</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="950">
@@ -14682,7 +14682,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="951">
@@ -14697,7 +14697,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>6.707317073170732</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="952">
@@ -14712,7 +14712,7 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>5.454545454545454</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="953">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>4.651162790697675</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="954">
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>4.519774011299435</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="955">
@@ -14757,7 +14757,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>5.555555555555555</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="956">
@@ -14772,7 +14772,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>3.977272727272727</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="957">
@@ -14787,7 +14787,7 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>2.884615384615385</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="958">
@@ -14802,7 +14802,7 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>3.278688524590164</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="959">
@@ -14817,7 +14817,7 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>2.976190476190476</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="960">
@@ -14832,7 +14832,7 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>6.319702602230483</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="961">
@@ -14847,7 +14847,7 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>10.38251366120219</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="962">
@@ -14862,7 +14862,7 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>13.29787234042553</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="963">
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>9.248554913294797</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="964">
@@ -14892,7 +14892,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>6.547619047619048</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="965">
@@ -14907,7 +14907,7 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>7.978723404255319</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="966">
@@ -14922,7 +14922,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>6.532663316582915</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="967">
@@ -14937,7 +14937,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>11.59420289855072</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="968">
@@ -14952,7 +14952,7 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>11.68831168831169</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="969">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>7.142857142857142</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="970">
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>10.82474226804124</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="971">
@@ -14997,7 +14997,7 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>7.407407407407407</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="972">
@@ -15012,7 +15012,7 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>7.428571428571429</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="973">
@@ -15027,7 +15027,7 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>8.743169398907105</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="974">
@@ -15042,7 +15042,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>3.10880829015544</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="975">
@@ -15057,7 +15057,7 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>4.819277108433735</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="976">
@@ -15072,7 +15072,7 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>4.040404040404041</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="977">
@@ -15087,7 +15087,7 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>8.522727272727272</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="978">
@@ -15102,7 +15102,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>8.60215053763441</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="979">
@@ -15117,7 +15117,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>7.048458149779736</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="980">
@@ -15132,7 +15132,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>5.82010582010582</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="981">
@@ -15147,7 +15147,7 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>4.736842105263158</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="982">
@@ -15162,7 +15162,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>9.292035398230089</v>
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="983">
@@ -15177,7 +15177,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>12.14285714285714</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="984">
@@ -15192,7 +15192,7 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>10.82802547770701</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="985">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>6.832298136645963</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="986">
@@ -15222,7 +15222,7 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>16.57458563535911</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="987">
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>8.287292817679557</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="988">
@@ -15252,7 +15252,7 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>8.205128205128204</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="989">
@@ -15267,7 +15267,7 @@
         </is>
       </c>
       <c r="C989" t="n">
-        <v>9.25925925925926</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="990">
@@ -15282,7 +15282,7 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>82.30088495575221</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="991">
@@ -15297,7 +15297,7 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>10.22727272727273</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="992">
@@ -15312,7 +15312,7 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>13.0718954248366</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="993">
@@ -15327,7 +15327,7 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>16.39344262295082</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="994">
@@ -15342,7 +15342,7 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>11.18012422360249</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="995">
@@ -15357,7 +15357,7 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>12.06896551724138</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="996">
@@ -15372,7 +15372,7 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>7.857142857142857</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="997">
@@ -15387,7 +15387,7 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>11.45038167938931</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="998">
@@ -15402,7 +15402,7 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>70.65217391304348</v>
+        <v>70.65000000000001</v>
       </c>
     </row>
     <row r="999">
@@ -15417,7 +15417,7 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>8.666666666666668</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="1000">
@@ -15432,7 +15432,7 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>8.609271523178808</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="1001">
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>13.22314049586777</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="1002">
@@ -15462,7 +15462,7 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>11.51079136690648</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="1003">
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>12.83783783783784</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="1004">
@@ -15492,7 +15492,7 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>7.83132530120482</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="1005">
@@ -15507,7 +15507,7 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>15.04424778761062</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="1006">
@@ -15522,7 +15522,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>9.574468085106384</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="1007">
@@ -15552,7 +15552,7 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>8.59375</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="1009">
@@ -15567,7 +15567,7 @@
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>6.282722513089005</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="1010">
@@ -15582,7 +15582,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>11.88811188811189</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="1011">
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>13.0718954248366</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="1012">
@@ -15612,7 +15612,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>12.32876712328767</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="1013">
@@ -15627,7 +15627,7 @@
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>7.857142857142857</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="1014">
@@ -15642,7 +15642,7 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>12.70718232044199</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="1015">
@@ -15657,7 +15657,7 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>12.70718232044199</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="1016">
@@ -15672,7 +15672,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>8.108108108108109</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="1017">
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>10.63829787234043</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="1018">
@@ -15702,7 +15702,7 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>9.782608695652174</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="1019">
@@ -15717,7 +15717,7 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>11.1731843575419</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="1020">
@@ -15732,7 +15732,7 @@
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>4.477611940298507</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="1021">
@@ -15747,7 +15747,7 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>6.493506493506493</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="1022">
@@ -15762,7 +15762,7 @@
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>10.8695652173913</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="1023">
@@ -15777,7 +15777,7 @@
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>3.144654088050315</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="1024">
@@ -15792,7 +15792,7 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>1.935483870967742</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="1025">
@@ -15807,7 +15807,7 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>6.164383561643835</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="1026">
@@ -15822,7 +15822,7 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>6.918238993710692</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="1027">
@@ -15837,7 +15837,7 @@
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>8.988764044943821</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="1028">
@@ -15852,7 +15852,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>9.090909090909092</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="1029">
@@ -15867,7 +15867,7 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>9.497206703910614</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="1030">
@@ -15882,7 +15882,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>6.211180124223603</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="1031">
@@ -15897,7 +15897,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>6.547619047619048</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="1032">
@@ -15912,7 +15912,7 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>16.80672268907563</v>
+        <v>16.81</v>
       </c>
     </row>
     <row r="1033">
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>15.49295774647887</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="1034">
@@ -15942,7 +15942,7 @@
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>5.072463768115942</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="1035">
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>4.895104895104895</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="1036">
@@ -15972,7 +15972,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>7.84313725490196</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="1037">
@@ -15987,7 +15987,7 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>10.20408163265306</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="1038">
@@ -16002,7 +16002,7 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>4.72972972972973</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="1039">
@@ -16017,7 +16017,7 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>8.843537414965986</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="1040">
@@ -16032,7 +16032,7 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>5.594405594405594</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="1041">
@@ -16047,7 +16047,7 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>5.031446540880504</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="1042">
@@ -16062,7 +16062,7 @@
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>8.552631578947368</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="1043">
@@ -16077,7 +16077,7 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>5.46875</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="1044">
@@ -16092,7 +16092,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>9.649122807017543</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="1045">
@@ -16107,7 +16107,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>12.32876712328767</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="1046">
@@ -16122,7 +16122,7 @@
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>8.724832214765101</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="1047">
@@ -16137,7 +16137,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>12.90322580645161</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="1048">
@@ -16152,7 +16152,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>12.34567901234568</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="1049">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>5.813953488372093</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="1050">
@@ -16182,7 +16182,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>12.14285714285714</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="1051">
@@ -16197,7 +16197,7 @@
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>6.741573033707865</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="1052">
@@ -16212,7 +16212,7 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>5.405405405405405</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="1053">
@@ -16227,7 +16227,7 @@
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>8.938547486033519</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="1054">
@@ -16242,7 +16242,7 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>8.860759493670885</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="1055">
@@ -16257,7 +16257,7 @@
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>10.32258064516129</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="1056">
@@ -16272,7 +16272,7 @@
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>7.361963190184049</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="1057">
@@ -16287,7 +16287,7 @@
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>9.868421052631579</v>
+        <v>9.869999999999999</v>
       </c>
     </row>
     <row r="1058">
@@ -16302,7 +16302,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>7.051282051282051</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="1059">
@@ -16332,7 +16332,7 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>1.162790697674419</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="1061">
@@ -16347,7 +16347,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>7.633587786259542</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="1062">
@@ -16362,7 +16362,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>6.060606060606061</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="1063">
@@ -16377,7 +16377,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>5.797101449275362</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="1064">
@@ -16392,7 +16392,7 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>7.857142857142857</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="1065">
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>6.122448979591836</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="1066">
@@ -16422,7 +16422,7 @@
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>5.673758865248227</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="1067">
@@ -16437,7 +16437,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>5.263157894736842</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="1068">
@@ -16452,7 +16452,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>5.442176870748299</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="1069">
@@ -16467,7 +16467,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>5.303030303030303</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1070">
@@ -16482,7 +16482,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>7.692307692307693</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="1071">
@@ -16497,7 +16497,7 @@
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>7.006369426751593</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="1072">
@@ -16512,7 +16512,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>14.01273885350319</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="1073">
@@ -16527,7 +16527,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>13.13868613138686</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="1074">
@@ -16542,7 +16542,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>13.28125</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="1075">
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>10.45751633986928</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="1076">
@@ -16572,7 +16572,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>6.58682634730539</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="1077">
@@ -16587,7 +16587,7 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>15.2046783625731</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="1078">
@@ -16602,7 +16602,7 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>9.803921568627452</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="1079">
@@ -16617,7 +16617,7 @@
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>12.30769230769231</v>
+        <v>12.31</v>
       </c>
     </row>
     <row r="1080">
@@ -16632,7 +16632,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>13.83647798742138</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="1081">
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>12.37623762376238</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="1082">
@@ -16662,7 +16662,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>8.450704225352112</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="1083">
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>5.095541401273886</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="1084">
@@ -16707,7 +16707,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>6.060606060606061</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="1086">
@@ -16722,7 +16722,7 @@
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>6.832298136645963</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="1087">
@@ -16737,7 +16737,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>6.081081081081082</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="1088">
@@ -16752,7 +16752,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>8.38709677419355</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="1089">
@@ -16767,7 +16767,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>8.290155440414509</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="1090">
@@ -16782,7 +16782,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>7.096774193548387</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="1091">
@@ -16797,7 +16797,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>10.73825503355705</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="1092">
@@ -16812,7 +16812,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>8.673469387755102</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="1093">
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>9.821428571428571</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="1094">
@@ -16857,7 +16857,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>7.8125</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="1096">
@@ -16872,7 +16872,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>14.93506493506493</v>
+        <v>14.94</v>
       </c>
     </row>
     <row r="1097">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>6.578947368421052</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="1098">
@@ -16902,7 +16902,7 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>16.44736842105263</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="1099">
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>10.98901098901099</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="1100">
@@ -16932,7 +16932,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>10.25641025641026</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="1101">
@@ -16947,7 +16947,7 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>12.67605633802817</v>
+        <v>12.68</v>
       </c>
     </row>
   </sheetData>
